--- a/addons/bi_generic_import/Sample XLS-CSV File/Sample XLS File/import_picking.xlsx
+++ b/addons/bi_generic_import/Sample XLS-CSV File/Sample XLS File/import_picking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>NAME</t>
   </si>
@@ -47,17 +47,42 @@
   </si>
   <si>
     <t>CARD</t>
+  </si>
+  <si>
+    <t>WH/IN/3</t>
+  </si>
+  <si>
+    <t>Camptocamp</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>CONS_DEL03</t>
+  </si>
+  <si>
+    <t>WH/IN/4</t>
+  </si>
+  <si>
+    <t>Think Big Systems</t>
+  </si>
+  <si>
+    <t>SO006</t>
+  </si>
+  <si>
+    <t>E-COM01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,6 +103,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +152,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,17 +186,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4030612244898"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -199,6 +240,46 @@
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>42952</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>36746</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
